--- a/Excel Courses/5-Excel Charts Tutorial File.xlsx
+++ b/Excel Courses/5-Excel Charts Tutorial File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/579481080490e445/Documents/Excel Series Excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-MOH\Desktop\Projects\Data Science\Ds (Data Analysis)\Data analysis - AlyxTheAnalyst\Excel Courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA04C7DD-8BCF-4FE5-B548-55CBD210AC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5C0ED6-6B35-440E-8CE0-8410F55B7FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{03CEABDE-3C67-4836-9FDD-609F2D7E7F08}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21336" windowHeight="11376" activeTab="1" xr2:uid="{03CEABDE-3C67-4836-9FDD-609F2D7E7F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="3" r:id="rId1"/>
@@ -172,6 +172,9292 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$3:$N$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-94AE-4B34-BD62-5E5691DF125F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Printer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$4:$N$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-94AE-4B34-BD62-5E5691DF125F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manila Folder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$5:$N$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-94AE-4B34-BD62-5E5691DF125F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Staplers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$6:$N$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-94AE-4B34-BD62-5E5691DF125F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 Ring Binder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$7:$N$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-94AE-4B34-BD62-5E5691DF125F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Highlighters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$8:$N$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-94AE-4B34-BD62-5E5691DF125F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$9:$N$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-94AE-4B34-BD62-5E5691DF125F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1091202943"/>
+        <c:axId val="1091203903"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Total Items Per Month</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$10:$N$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$10:$M$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>898</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>585</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>547</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1113</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>571</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>871</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>888</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>678</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>987</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>442</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>776</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>721</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-94AE-4B34-BD62-5E5691DF125F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1091202943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1091203903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1091203903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1091202943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$3:$N$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28DA-4FBA-87EB-16033879B861}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manila Folder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$5:$N$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-28DA-4FBA-87EB-16033879B861}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 Ring Binder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$7:$N$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-28DA-4FBA-87EB-16033879B861}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1091202943"/>
+        <c:axId val="1091203903"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Printer</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$4:$N$4</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$4:$M$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>91</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-28DA-4FBA-87EB-16033879B861}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Staplers</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$6:$N$6</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$6:$M$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-28DA-4FBA-87EB-16033879B861}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Highlighters</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$8:$N$8</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$8:$M$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>31</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-28DA-4FBA-87EB-16033879B861}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Pens</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$9:$N$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$9:$M$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-28DA-4FBA-87EB-16033879B861}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Total Items Per Month</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$10:$N$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$10:$M$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>898</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>585</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>547</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1113</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>571</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>871</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>888</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>678</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>987</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>442</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>776</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>721</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-28DA-4FBA-87EB-16033879B861}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1091202943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1091203903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1091203903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1091202943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3E19-4914-B1C4-B863BD13D5DD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3E19-4914-B1C4-B863BD13D5DD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3E19-4914-B1C4-B863BD13D5DD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3E19-4914-B1C4-B863BD13D5DD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3E19-4914-B1C4-B863BD13D5DD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-3E19-4914-B1C4-B863BD13D5DD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-3E19-4914-B1C4-B863BD13D5DD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Paper</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Printer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Manila Folder</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Staplers</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Ring Binder</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Highlighters</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Pens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$3:$B$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions/>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-3E19-4914-B1C4-B863BD13D5DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$C$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>February </c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000010-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000012-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="2"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000014-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="3"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000016-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="4"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000018-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="5"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000001A-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="6"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000001C-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:pattFill prst="pct75">
+                      <a:fgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:fgClr>
+                      <a:bgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:bgClr>
+                    </a:pattFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="40000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="50000"/>
+                            <a:lumOff val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$A$3:$A$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$3:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>Paper</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Printer</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Manila Folder</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Staplers</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3 Ring Binder</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Highlighters</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Pens</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$C$3:$C$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$C$3:$C$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>310</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>118</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>14</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:categoryFilterExceptions/>
+                  </c:ext>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000001D-3E19-4914-B1C4-B863BD13D5DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$D$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>March</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000001F-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000021-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="2"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000023-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="3"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000025-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="4"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000027-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="5"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000029-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="6"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000002B-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:pattFill prst="pct75">
+                      <a:fgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:fgClr>
+                      <a:bgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:bgClr>
+                    </a:pattFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="40000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="50000"/>
+                            <a:lumOff val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$A$3:$A$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$3:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>Paper</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Printer</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Manila Folder</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Staplers</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3 Ring Binder</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Highlighters</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Pens</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$D$3:$D$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$D$3:$D$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>145</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>29</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:categoryFilterExceptions/>
+                  </c:ext>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000002C-3E19-4914-B1C4-B863BD13D5DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$E$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>April</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000002E-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000030-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="2"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000032-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="3"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000034-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="4"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000036-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="5"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000038-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="6"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000003A-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:pattFill prst="pct75">
+                      <a:fgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:fgClr>
+                      <a:bgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:bgClr>
+                    </a:pattFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="40000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="50000"/>
+                            <a:lumOff val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$A$3:$A$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$3:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>Paper</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Printer</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Manila Folder</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Staplers</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3 Ring Binder</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Highlighters</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Pens</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$E$3:$E$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$E$3:$E$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>750</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>210</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:categoryFilterExceptions/>
+                  </c:ext>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000003B-3E19-4914-B1C4-B863BD13D5DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>May</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000003D-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000003F-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="2"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000041-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="3"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000043-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="4"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000045-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="5"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000047-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="6"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000049-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:pattFill prst="pct75">
+                      <a:fgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:fgClr>
+                      <a:bgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:bgClr>
+                    </a:pattFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="40000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="50000"/>
+                            <a:lumOff val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$A$3:$A$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$3:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>Paper</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Printer</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Manila Folder</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Staplers</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3 Ring Binder</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Highlighters</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Pens</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$F$3:$F$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$F$3:$F$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>440</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:categoryFilterExceptions/>
+                  </c:ext>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000004A-3E19-4914-B1C4-B863BD13D5DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$G$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>June</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000004C-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000004E-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="2"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000050-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="3"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000052-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="4"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000054-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="5"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000056-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="6"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000058-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:pattFill prst="pct75">
+                      <a:fgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:fgClr>
+                      <a:bgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:bgClr>
+                    </a:pattFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="40000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="50000"/>
+                            <a:lumOff val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$A$3:$A$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$3:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>Paper</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Printer</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Manila Folder</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Staplers</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3 Ring Binder</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Highlighters</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Pens</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$G$3:$G$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$G$3:$G$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>485</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>13</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:categoryFilterExceptions/>
+                  </c:ext>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000059-3E19-4914-B1C4-B863BD13D5DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$H$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>July</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000005B-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000005D-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="2"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000005F-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="3"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000061-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="4"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000063-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="5"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000065-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="6"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000067-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:pattFill prst="pct75">
+                      <a:fgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:fgClr>
+                      <a:bgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:bgClr>
+                    </a:pattFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="40000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="50000"/>
+                            <a:lumOff val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$A$3:$A$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$3:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>Paper</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Printer</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Manila Folder</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Staplers</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3 Ring Binder</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Highlighters</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Pens</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$H$3:$H$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$H$3:$H$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>510</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>33</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:categoryFilterExceptions/>
+                  </c:ext>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000068-3E19-4914-B1C4-B863BD13D5DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$I$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>August</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000006A-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000006C-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="2"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000006E-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="3"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000070-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="4"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000072-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="5"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000074-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="6"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000076-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:pattFill prst="pct75">
+                      <a:fgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:fgClr>
+                      <a:bgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:bgClr>
+                    </a:pattFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="40000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="50000"/>
+                            <a:lumOff val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$A$3:$A$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$3:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>Paper</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Printer</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Manila Folder</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Staplers</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3 Ring Binder</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Highlighters</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Pens</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$I$3:$I$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$I$3:$I$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>347</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>28</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:categoryFilterExceptions/>
+                  </c:ext>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000077-3E19-4914-B1C4-B863BD13D5DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$J$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>September</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000079-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000007B-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="2"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000007D-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="3"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000007F-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="4"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000081-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="5"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000083-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="6"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000085-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:pattFill prst="pct75">
+                      <a:fgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:fgClr>
+                      <a:bgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:bgClr>
+                    </a:pattFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="40000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="50000"/>
+                            <a:lumOff val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$A$3:$A$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$3:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>Paper</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Printer</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Manila Folder</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Staplers</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3 Ring Binder</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Highlighters</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Pens</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$J$3:$J$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$J$3:$J$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>736</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>31</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:categoryFilterExceptions/>
+                  </c:ext>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000086-3E19-4914-B1C4-B863BD13D5DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$K$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>October</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000088-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000008A-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="2"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000008C-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="3"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000008E-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="4"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000090-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="5"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000092-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="6"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000094-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:pattFill prst="pct75">
+                      <a:fgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:fgClr>
+                      <a:bgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:bgClr>
+                    </a:pattFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="40000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="50000"/>
+                            <a:lumOff val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$A$3:$A$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$3:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>Paper</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Printer</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Manila Folder</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Staplers</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3 Ring Binder</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Highlighters</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Pens</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$K$3:$K$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$K$3:$K$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>155</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:categoryFilterExceptions/>
+                  </c:ext>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000095-3E19-4914-B1C4-B863BD13D5DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$L$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>November</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000097-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000099-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="2"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000009B-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="3"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000009D-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="4"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000009F-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="5"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{000000A1-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="6"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{000000A3-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:pattFill prst="pct75">
+                      <a:fgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:fgClr>
+                      <a:bgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:bgClr>
+                    </a:pattFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="40000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="50000"/>
+                            <a:lumOff val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$A$3:$A$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$3:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>Paper</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Printer</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Manila Folder</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Staplers</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3 Ring Binder</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Highlighters</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Pens</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$L$3:$L$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$L$3:$L$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>450</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:categoryFilterExceptions/>
+                  </c:ext>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{000000A4-3E19-4914-B1C4-B863BD13D5DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{000000A6-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{000000A8-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="2"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{000000AA-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="3"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{000000AC-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="4"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{000000AE-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="5"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{000000B0-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="6"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{000000B2-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:pattFill prst="pct75">
+                      <a:fgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:fgClr>
+                      <a:bgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:bgClr>
+                    </a:pattFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="40000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="50000"/>
+                            <a:lumOff val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$A$3:$A$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$3:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>Paper</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Printer</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Manila Folder</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Staplers</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3 Ring Binder</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Highlighters</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Pens</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$M$3:$M$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$M$3:$M$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>288</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>180</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>103</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:categoryFilterExceptions/>
+                  </c:ext>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{000000B3-3E19-4914-B1C4-B863BD13D5DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="12"/>
+                <c:order val="12"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$N$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Year End Total</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{000000B5-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{000000B7-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="2"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{000000B9-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="3"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{000000BB-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="4"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{000000BD-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="5"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{000000BF-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="6"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{000000C1-3E19-4914-B1C4-B863BD13D5DD}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:pattFill prst="pct75">
+                      <a:fgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:fgClr>
+                      <a:bgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:bgClr>
+                    </a:pattFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="40000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="50000"/>
+                            <a:lumOff val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$A$3:$A$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$3:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>Paper</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Printer</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Manila Folder</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Staplers</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3 Ring Binder</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Highlighters</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Pens</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$N$3:$N$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$N$3:$N$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>5071</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>667</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1583</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>271</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>811</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>451</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>223</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:categoryFilterExceptions/>
+                  </c:ext>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{000000C2-3E19-4914-B1C4-B863BD13D5DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+          </c:ext>
+        </c:extLst>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B37A98DE-203E-49D9-BCC1-7541F793269E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B157C71-DF48-4A88-8819-0AE6AE7DA2BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5A77DC0-4311-4197-A60C-3B5093D52280}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,8 +9759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41930B34-5114-49CB-81BC-662EB848F545}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,12 +10213,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B444C6-5638-496B-93B2-259D582C3A1D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>